--- a/data/cat_co1545.xlsx
+++ b/data/cat_co1545.xlsx
@@ -8,18 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BACE8A6-BC3E-4615-B83D-96B1E1940FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916480CC-9FEE-4288-8B47-0A79F5674A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="2190" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="2640" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="capo1545_activity_Y2023" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,14 +673,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1048,7 +1060,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{106AA7C2-F28A-4237-868C-9149192E1C81}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{106AA7C2-F28A-4237-868C-9149192E1C81}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -1464,7 +1476,7 @@
   <dimension ref="A3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,73 +1501,66 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>329.99</v>
       </c>
-      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>400.65</v>
       </c>
-      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>142.85</v>
       </c>
-      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>155.58000000000001</v>
       </c>
-      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>30.41</v>
       </c>
-      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>64.989999999999995</v>
       </c>
-      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>23.98</v>
       </c>
-      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>531.51</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>391.13</v>
       </c>
     </row>
@@ -1563,8 +1568,7 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>5437.53</v>
       </c>
     </row>
@@ -1572,37 +1576,34 @@
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>2996.33</v>
       </c>
-      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>1138.6300000000001</v>
       </c>
-      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>13.74</v>
       </c>
-      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>5828.66</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>5828.66</v>
       </c>
     </row>
